--- a/AFC User Login-PowerBI.xlsx
+++ b/AFC User Login-PowerBI.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarpanDesai\Desktop\Power Bi pbix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095F6889-57ED-4047-A28E-7711B2A230AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C449AA-5BFB-4A8E-85F8-2616C015D13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="573">
   <si>
     <t>userPrincipalName</t>
   </si>
@@ -1727,12 +1740,6 @@
   </si>
   <si>
     <t>TABLET-UNGQ2P1R</t>
-  </si>
-  <si>
-    <t>No filters applied</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t xml:space="preserve">bryan.p.jonas.mil </t>
@@ -1762,12 +1769,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1791,16 +1804,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2110,11 +2154,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C291"/>
+  <dimension ref="A1:C289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C288"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2157,14 +2199,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2234,24 +2270,24 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>44937</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>44946</v>
       </c>
     </row>
@@ -2289,13 +2325,13 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>44936</v>
       </c>
     </row>
@@ -2337,7 +2373,7 @@
         <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C20" s="3">
         <v>44988</v>
@@ -2432,15 +2468,10 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
-        <v>570</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>570</v>
-      </c>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
@@ -2465,19 +2496,19 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <v>44944</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B33" t="s">
         <v>258</v>
@@ -2487,13 +2518,13 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
         <v>44937</v>
       </c>
     </row>
@@ -2542,13 +2573,13 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="5">
         <v>44868</v>
       </c>
     </row>
@@ -2641,13 +2672,13 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="5">
         <v>44932</v>
       </c>
     </row>
@@ -2740,13 +2771,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="A57" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="5">
         <v>44858</v>
       </c>
     </row>
@@ -2960,57 +2991,57 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="A77" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="5">
         <v>44937</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="A78" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="5">
         <v>44826</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="A79" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="5">
         <v>44886</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="5">
         <v>44937</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="A81" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="5">
         <v>44958</v>
       </c>
     </row>
@@ -3400,13 +3431,13 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" t="s">
+      <c r="A117" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="5">
         <v>44865</v>
       </c>
     </row>
@@ -3532,13 +3563,13 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" t="s">
+      <c r="A129" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="5">
         <v>44875</v>
       </c>
     </row>
@@ -3620,13 +3651,13 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" t="s">
+      <c r="A137" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="5">
         <v>44770</v>
       </c>
     </row>
@@ -3675,24 +3706,24 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" t="s">
+      <c r="A142" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="5">
         <v>44671</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" t="s">
+      <c r="A143" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="5">
         <v>44881</v>
       </c>
     </row>
@@ -3888,31 +3919,26 @@
         <v>241</v>
       </c>
       <c r="B161" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C161" s="3">
         <v>44991</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" t="s">
+      <c r="A162" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>572</v>
-      </c>
-      <c r="B163" t="s">
+      <c r="B163" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="5">
         <v>44888</v>
       </c>
     </row>
@@ -3972,13 +3998,13 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" t="s">
+      <c r="A169" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="5">
         <v>44902</v>
       </c>
     </row>
@@ -4093,15 +4119,10 @@
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" t="s">
+      <c r="A180" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B180" t="s">
-        <v>570</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>570</v>
-      </c>
+      <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
@@ -4148,24 +4169,24 @@
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" t="s">
+      <c r="A185" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="5">
         <v>44916</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" t="s">
+      <c r="A186" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="5">
         <v>44854</v>
       </c>
     </row>
@@ -4236,13 +4257,13 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" t="s">
+      <c r="A193" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="5">
         <v>44945</v>
       </c>
     </row>
@@ -4324,13 +4345,13 @@
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" t="s">
+      <c r="A201" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="5">
         <v>44860</v>
       </c>
     </row>
@@ -4379,13 +4400,13 @@
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" t="s">
+      <c r="A206" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C206" s="3">
+      <c r="C206" s="5">
         <v>44943</v>
       </c>
     </row>
@@ -4401,13 +4422,13 @@
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" t="s">
+      <c r="A208" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C208" s="3">
+      <c r="C208" s="5">
         <v>44914</v>
       </c>
     </row>
@@ -4522,13 +4543,13 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" t="s">
+      <c r="A219" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C219" s="3">
+      <c r="C219" s="5">
         <v>44859</v>
       </c>
     </row>
@@ -4610,13 +4631,13 @@
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" t="s">
+      <c r="A227" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C227" s="3">
+      <c r="C227" s="5">
         <v>44860</v>
       </c>
     </row>
@@ -4654,24 +4675,24 @@
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" t="s">
+      <c r="A231" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C231" s="3">
+      <c r="C231" s="5">
         <v>44897</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" t="s">
+      <c r="A232" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C232" s="3">
+      <c r="C232" s="5">
         <v>44933</v>
       </c>
     </row>
@@ -4742,13 +4763,13 @@
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" t="s">
+      <c r="A239" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C239" s="3">
+      <c r="C239" s="5">
         <v>44915</v>
       </c>
     </row>
@@ -4764,13 +4785,13 @@
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" t="s">
+      <c r="A241" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C241" s="3">
+      <c r="C241" s="5">
         <v>44805</v>
       </c>
     </row>
@@ -4830,13 +4851,13 @@
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" t="s">
+      <c r="A247" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C247" s="3">
+      <c r="C247" s="5">
         <v>44851</v>
       </c>
     </row>
@@ -4929,13 +4950,13 @@
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" t="s">
+      <c r="A256" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C256" s="3">
+      <c r="C256" s="5">
         <v>44943</v>
       </c>
     </row>
@@ -4995,13 +5016,13 @@
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" t="s">
+      <c r="A262" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C262" s="3">
+      <c r="C262" s="5">
         <v>44846</v>
       </c>
     </row>
@@ -5296,12 +5317,13 @@
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
     </row>
-    <row r="291" spans="1:3">
-      <c r="A291" t="s">
-        <v>569</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:C288">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>